--- a/output/results_dblp_imdb_fnn_bnn_emb_nns.xlsx
+++ b/output/results_dblp_imdb_fnn_bnn_emb_nns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00641C7D-4F6B-4792-9AE3-2220D0C224CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90E3AB-756C-430F-B193-BCA56AB92415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBLP" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="121">
   <si>
     <t>dblp-fnn-nons</t>
   </si>
@@ -420,10 +420,10 @@
     <t>uspt-bnn-emb-unigram_b</t>
   </si>
   <si>
-    <t>ReRunning</t>
+    <t>USPT-AUC</t>
   </si>
   <si>
-    <t>Running</t>
+    <t>uspt</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,16 +1033,21 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,9 +1057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,29 +1077,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -40929,15 +40923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6568</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>92293</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40965,15 +40959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145174</xdr:rowOff>
+      <xdr:colOff>184588</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>565916</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137291</xdr:rowOff>
+      <xdr:colOff>737366</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>61091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41003,15 +40997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>164224</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>297574</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41041,15 +41035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>459828</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>697953</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>36787</xdr:rowOff>
+      <xdr:colOff>376073</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>141562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43090,8 +43084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5530C1-6C3D-4A4D-A134-A75DF80A1634}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43217,14 +43211,14 @@
       <c r="P2" s="82">
         <v>0.48376926528187003</v>
       </c>
-      <c r="Q2" s="133" t="s">
-        <v>119</v>
+      <c r="Q2" s="82">
+        <v>0.49392901221288799</v>
       </c>
       <c r="R2" s="82">
         <v>0.50229434479696999</v>
       </c>
-      <c r="S2" s="134" t="s">
-        <v>120</v>
+      <c r="S2" s="82">
+        <v>1.2686324529811902E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -43276,11 +43270,15 @@
       <c r="P3" s="82">
         <v>0.99900623006584111</v>
       </c>
-      <c r="Q3" s="133"/>
+      <c r="Q3" s="82">
+        <v>1.00971056886235</v>
+      </c>
       <c r="R3" s="82">
         <v>1.04249465544764</v>
       </c>
-      <c r="S3" s="134"/>
+      <c r="S3" s="82">
+        <v>3.44133647048563E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -43331,11 +43329,15 @@
       <c r="P4" s="82">
         <v>1.6010722798734798</v>
       </c>
-      <c r="Q4" s="133"/>
+      <c r="Q4" s="82">
+        <v>1.6033368912833099</v>
+      </c>
       <c r="R4" s="82">
         <v>1.68432624482388</v>
       </c>
-      <c r="S4" s="134"/>
+      <c r="S4" s="82">
+        <v>7.0304223202147006E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -43386,11 +43388,15 @@
       <c r="P5" s="82">
         <v>0.38017634452770999</v>
       </c>
-      <c r="Q5" s="133"/>
+      <c r="Q5" s="82">
+        <v>0.39310178774792698</v>
+      </c>
       <c r="R5" s="82">
         <v>0.39191309658090101</v>
       </c>
-      <c r="S5" s="134"/>
+      <c r="S5" s="82">
+        <v>9.4037615046018395E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -43441,11 +43447,15 @@
       <c r="P6" s="82">
         <v>0.54584006080417102</v>
       </c>
-      <c r="Q6" s="133"/>
+      <c r="Q6" s="82">
+        <v>0.55895118338548799</v>
+      </c>
       <c r="R6" s="82">
         <v>0.56890017419166494</v>
       </c>
-      <c r="S6" s="134"/>
+      <c r="S6" s="82">
+        <v>1.4927852818477801E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -43496,11 +43506,15 @@
       <c r="P7" s="82">
         <v>0.66832996292531399</v>
       </c>
-      <c r="Q7" s="133"/>
+      <c r="Q7" s="82">
+        <v>0.67693570003375403</v>
+      </c>
       <c r="R7" s="82">
         <v>0.69363089948703094</v>
       </c>
-      <c r="S7" s="134"/>
+      <c r="S7" s="82">
+        <v>1.9684891417081501E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -43551,11 +43565,15 @@
       <c r="P8" s="82">
         <v>1.0572768242396999</v>
       </c>
-      <c r="Q8" s="133"/>
+      <c r="Q8" s="82">
+        <v>1.0678263475426</v>
+      </c>
       <c r="R8" s="82">
         <v>1.10426464212887</v>
       </c>
-      <c r="S8" s="134"/>
+      <c r="S8" s="82">
+        <v>2.2024298338326E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -43606,11 +43624,15 @@
       <c r="P9" s="82">
         <v>1.07611828047612</v>
       </c>
-      <c r="Q9" s="133"/>
+      <c r="Q9" s="82">
+        <v>1.0839480327183799</v>
+      </c>
       <c r="R9" s="82">
         <v>1.1235289856314101</v>
       </c>
-      <c r="S9" s="134"/>
+      <c r="S9" s="82">
+        <v>3.0095334440151802E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -43661,11 +43683,15 @@
       <c r="P10" s="82">
         <v>1.3246083518515801</v>
       </c>
-      <c r="Q10" s="133"/>
+      <c r="Q10" s="82">
+        <v>1.33314501376615</v>
+      </c>
       <c r="R10" s="82">
         <v>1.3853831357070401</v>
       </c>
-      <c r="S10" s="134"/>
+      <c r="S10" s="82">
+        <v>4.7010046018941702E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -43716,11 +43742,15 @@
       <c r="P11" s="82">
         <v>1.0464810924369701</v>
       </c>
-      <c r="Q11" s="133"/>
+      <c r="Q11" s="82">
+        <v>1.0491071428571399</v>
+      </c>
       <c r="R11" s="82">
         <v>1.09287464985994</v>
       </c>
-      <c r="S11" s="134"/>
+      <c r="S11" s="82">
+        <v>2.2321428571428499E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -43771,11 +43801,15 @@
       <c r="P12" s="82">
         <v>0.88830532212885105</v>
       </c>
-      <c r="Q12" s="133"/>
+      <c r="Q12" s="82">
+        <v>0.88322829131652603</v>
+      </c>
       <c r="R12" s="82">
         <v>0.92664565826330503</v>
       </c>
-      <c r="S12" s="134"/>
+      <c r="S12" s="82">
+        <v>2.5735294117647002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -43826,78 +43860,214 @@
       <c r="P13" s="82">
         <v>0.72715336134453701</v>
       </c>
-      <c r="Q13" s="133"/>
+      <c r="Q13" s="82">
+        <v>0.72242647058823506</v>
+      </c>
       <c r="R13" s="82">
         <v>0.75954131652660994</v>
       </c>
-      <c r="S13" s="134"/>
+      <c r="S13" s="82">
+        <v>2.62605042016806E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82">
+        <v>0.49392901221288799</v>
+      </c>
+      <c r="B25" s="82">
+        <v>1.00971056886235</v>
+      </c>
+      <c r="C25" s="82">
+        <v>1.6033368912833099</v>
+      </c>
+      <c r="D25" s="82">
+        <v>0.39310178774792698</v>
+      </c>
+      <c r="E25" s="82">
+        <v>0.55895118338548799</v>
+      </c>
+      <c r="F25" s="82">
+        <v>0.67693570003375403</v>
+      </c>
+      <c r="G25" s="82">
+        <v>1.0678263475426</v>
+      </c>
+      <c r="H25" s="82">
+        <v>1.0839480327183799</v>
+      </c>
+      <c r="I25" s="82">
+        <v>1.33314501376615</v>
+      </c>
+      <c r="J25" s="82">
+        <v>1.0491071428571399</v>
+      </c>
+      <c r="K25" s="82">
+        <v>0.88322829131652603</v>
+      </c>
+      <c r="L25" s="82">
+        <v>0.72242647058823506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="82">
+        <v>0.50229434479696999</v>
+      </c>
+      <c r="B26" s="82">
+        <v>1.04249465544764</v>
+      </c>
+      <c r="C26" s="82">
+        <v>1.68432624482388</v>
+      </c>
+      <c r="D26" s="82">
+        <v>0.39191309658090101</v>
+      </c>
+      <c r="E26" s="82">
+        <v>0.56890017419166494</v>
+      </c>
+      <c r="F26" s="82">
+        <v>0.69363089948703094</v>
+      </c>
+      <c r="G26" s="82">
+        <v>1.10426464212887</v>
+      </c>
+      <c r="H26" s="82">
+        <v>1.1235289856314101</v>
+      </c>
+      <c r="I26" s="82">
+        <v>1.3853831357070401</v>
+      </c>
+      <c r="J26" s="82">
+        <v>1.09287464985994</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0.92664565826330503</v>
+      </c>
+      <c r="L26" s="82">
+        <v>0.75954131652660994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D39" s="135"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="136"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D40" s="135"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="138"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="120"/>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D41" s="135"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="139"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="139"/>
-      <c r="P41" s="139"/>
-      <c r="Q41" s="139"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="121"/>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D42" s="140"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="123"/>
+      <c r="P42" s="123"/>
+      <c r="Q42" s="123"/>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D43" s="135"/>
+      <c r="D43" s="118"/>
       <c r="E43" s="72"/>
       <c r="F43" s="72"/>
       <c r="G43" s="44"/>
@@ -43913,7 +44083,7 @@
       <c r="Q43" s="44"/>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D44" s="135"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
@@ -43929,7 +44099,7 @@
       <c r="Q44" s="44"/>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D45" s="135"/>
+      <c r="D45" s="118"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
@@ -43945,7 +44115,7 @@
       <c r="Q45" s="44"/>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D46" s="135"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
@@ -43961,7 +44131,7 @@
       <c r="Q46" s="44"/>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D47" s="140"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
@@ -43977,7 +44147,7 @@
       <c r="Q47" s="44"/>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D48" s="135"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
@@ -43993,7 +44163,7 @@
       <c r="Q48" s="44"/>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D49" s="135"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
@@ -44009,7 +44179,7 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D50" s="135"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
@@ -44025,7 +44195,7 @@
       <c r="Q50" s="44"/>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D51" s="135"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
@@ -44041,7 +44211,7 @@
       <c r="Q51" s="44"/>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D52" s="135"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
@@ -44057,7 +44227,7 @@
       <c r="Q52" s="44"/>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D53" s="135"/>
+      <c r="D53" s="118"/>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
@@ -44073,7 +44243,7 @@
       <c r="Q53" s="44"/>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D54" s="135"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
@@ -44089,7 +44259,7 @@
       <c r="Q54" s="44"/>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D55" s="135"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
@@ -44105,7 +44275,7 @@
       <c r="Q55" s="44"/>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D56" s="135"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
@@ -44121,7 +44291,7 @@
       <c r="Q56" s="44"/>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D57" s="135"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
@@ -44137,7 +44307,7 @@
       <c r="Q57" s="44"/>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D58" s="135"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="72"/>
@@ -44153,11 +44323,9 @@
       <c r="Q58" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="E39:Q39"/>
     <mergeCell ref="E42:Q42"/>
-    <mergeCell ref="Q2:Q13"/>
-    <mergeCell ref="S2:S13"/>
   </mergeCells>
   <conditionalFormatting sqref="Q43:Q58">
     <cfRule type="colorScale" priority="13">
@@ -44296,10 +44464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE483F02-EABB-410C-B581-D071545F3EF7}">
-  <dimension ref="A1:AI64"/>
+  <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44322,34 +44490,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="126" t="s">
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
@@ -44426,7 +44594,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="130" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -44508,7 +44676,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="129"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
@@ -44586,7 +44754,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
@@ -44664,7 +44832,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="129"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="12" t="s">
         <v>47</v>
       </c>
@@ -44742,7 +44910,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="129"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -44822,7 +44990,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="129"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
@@ -44900,7 +45068,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="129"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
@@ -44978,7 +45146,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="129"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
@@ -45056,7 +45224,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="132" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -45138,7 +45306,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="129"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
@@ -45216,7 +45384,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="129"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
@@ -45294,7 +45462,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="129"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="12" t="s">
         <v>47</v>
       </c>
@@ -45372,7 +45540,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="129"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
@@ -45452,7 +45620,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
@@ -45530,7 +45698,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
@@ -45608,7 +45776,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="12" t="s">
         <v>51</v>
       </c>
@@ -45687,16 +45855,16 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AC22" s="96"/>
-      <c r="AD22" s="118" t="s">
+      <c r="AD22" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="119" t="s">
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="AH22" s="120"/>
-      <c r="AI22" s="121"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AC23" s="96"/>
@@ -45720,21 +45888,21 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
       <c r="AC24" s="99" t="s">
         <v>88</v>
       </c>
@@ -45888,19 +46056,19 @@
       <c r="B27" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="127"/>
       <c r="AC27" s="104" t="s">
         <v>46</v>
       </c>
@@ -46945,21 +47113,21 @@
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C45" s="125" t="s">
+      <c r="C45" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="124"/>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C46" s="86" t="s">
@@ -47050,19 +47218,19 @@
       <c r="B48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="123"/>
-      <c r="O48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="127"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="41" t="s">
@@ -47768,21 +47936,847 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C67" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="124"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C68" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="L68" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="M68" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="N68" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="O68" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="82">
+        <v>9.4037615046018395E-3</v>
+      </c>
+      <c r="D69" s="82">
+        <v>1.4927852818477801E-2</v>
+      </c>
+      <c r="E69" s="82">
+        <v>1.9684891417081501E-2</v>
+      </c>
+      <c r="F69" s="82">
+        <v>2.2024298338326E-2</v>
+      </c>
+      <c r="G69" s="82">
+        <v>3.0095334440151802E-2</v>
+      </c>
+      <c r="H69" s="82">
+        <v>4.7010046018941702E-2</v>
+      </c>
+      <c r="I69" s="82">
+        <v>2.2321428571428499E-2</v>
+      </c>
+      <c r="J69" s="82">
+        <v>2.5735294117647002E-2</v>
+      </c>
+      <c r="K69" s="82">
+        <v>2.62605042016806E-2</v>
+      </c>
+      <c r="L69" s="82">
+        <v>1.2686324529811902E-2</v>
+      </c>
+      <c r="M69" s="82">
+        <v>3.44133647048563E-2</v>
+      </c>
+      <c r="N69" s="82">
+        <v>7.0304223202147006E-2</v>
+      </c>
+      <c r="O69" s="92">
+        <v>0.49990000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="125"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="127"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="82">
+        <v>3.6259453276259999E-3</v>
+      </c>
+      <c r="D71" s="82">
+        <v>7.8242676489787798E-3</v>
+      </c>
+      <c r="E71" s="82">
+        <v>1.34606431708084E-2</v>
+      </c>
+      <c r="F71" s="82">
+        <v>1.2734078456703499E-2</v>
+      </c>
+      <c r="G71" s="82">
+        <v>1.58385797493064E-2</v>
+      </c>
+      <c r="H71" s="82">
+        <v>2.9788306408399298E-2</v>
+      </c>
+      <c r="I71" s="82">
+        <v>1.31302521008403E-2</v>
+      </c>
+      <c r="J71" s="82">
+        <v>1.54061624649859E-2</v>
+      </c>
+      <c r="K71" s="82">
+        <v>1.8557422969187599E-2</v>
+      </c>
+      <c r="L71" s="82">
+        <v>4.3524669968997695E-3</v>
+      </c>
+      <c r="M71" s="82">
+        <v>1.6165241349064802E-2</v>
+      </c>
+      <c r="N71" s="82">
+        <v>5.0705856837684492E-2</v>
+      </c>
+      <c r="O71" s="82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="82">
+        <v>6.2769011790808002E-2</v>
+      </c>
+      <c r="D72" s="82">
+        <v>0.103628985588019</v>
+      </c>
+      <c r="E72" s="82">
+        <v>0.14633767052862201</v>
+      </c>
+      <c r="F72" s="82">
+        <v>0.18218791310193799</v>
+      </c>
+      <c r="G72" s="82">
+        <v>0.19664161386672899</v>
+      </c>
+      <c r="H72" s="82">
+        <v>0.28075088404364901</v>
+      </c>
+      <c r="I72" s="82">
+        <v>0.18119747899159599</v>
+      </c>
+      <c r="J72" s="82">
+        <v>0.17331932773109199</v>
+      </c>
+      <c r="K72" s="82">
+        <v>0.174019607843137</v>
+      </c>
+      <c r="L72" s="82">
+        <v>7.7651011113458498E-2</v>
+      </c>
+      <c r="M72" s="82">
+        <v>0.18350690485012899</v>
+      </c>
+      <c r="N72" s="82">
+        <v>0.37607382818123303</v>
+      </c>
+      <c r="O72" s="82">
+        <v>0.63752061913577696</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="82">
+        <v>5.4716269034808904E-2</v>
+      </c>
+      <c r="D73" s="82">
+        <v>9.1904054664471296E-2</v>
+      </c>
+      <c r="E73" s="82">
+        <v>0.13146814164054299</v>
+      </c>
+      <c r="F73" s="82">
+        <v>0.14812564023967198</v>
+      </c>
+      <c r="G73" s="82">
+        <v>0.17873898724348</v>
+      </c>
+      <c r="H73" s="82">
+        <v>0.26583897917115901</v>
+      </c>
+      <c r="I73" s="82">
+        <v>0.150997899159663</v>
+      </c>
+      <c r="J73" s="82">
+        <v>0.15948879551820699</v>
+      </c>
+      <c r="K73" s="82">
+        <v>0.16596638655462101</v>
+      </c>
+      <c r="L73" s="82">
+        <v>7.0806411142545503E-2</v>
+      </c>
+      <c r="M73" s="82">
+        <v>0.180754853417668</v>
+      </c>
+      <c r="N73" s="82">
+        <v>0.36911464153454698</v>
+      </c>
+      <c r="O73" s="82">
+        <v>0.63674498552106495</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="82">
+        <v>4.9553212893549005E-2</v>
+      </c>
+      <c r="D74" s="82">
+        <v>9.3640329152737206E-2</v>
+      </c>
+      <c r="E74" s="82">
+        <v>0.132124177945045</v>
+      </c>
+      <c r="F74" s="82">
+        <v>0.14905853236487102</v>
+      </c>
+      <c r="G74" s="82">
+        <v>0.18757584791159498</v>
+      </c>
+      <c r="H74" s="82">
+        <v>0.26620599311970899</v>
+      </c>
+      <c r="I74" s="82">
+        <v>0.15143557422969101</v>
+      </c>
+      <c r="J74" s="82">
+        <v>0.173494397759103</v>
+      </c>
+      <c r="K74" s="82">
+        <v>0.16859243697478898</v>
+      </c>
+      <c r="L74" s="82">
+        <v>6.3363819206781302E-2</v>
+      </c>
+      <c r="M74" s="82">
+        <v>0.18628204729832801</v>
+      </c>
+      <c r="N74" s="82">
+        <v>0.36927712640028798</v>
+      </c>
+      <c r="O74" s="82">
+        <v>0.63816521872390797</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="82">
+        <v>0</v>
+      </c>
+      <c r="D75" s="82">
+        <v>1.7665052131963801E-3</v>
+      </c>
+      <c r="E75" s="82">
+        <v>7.0087641538096705E-3</v>
+      </c>
+      <c r="F75" s="82">
+        <v>0</v>
+      </c>
+      <c r="G75" s="82">
+        <v>4.5904507761951995E-3</v>
+      </c>
+      <c r="H75" s="82">
+        <v>1.9822257692364099E-2</v>
+      </c>
+      <c r="I75" s="82">
+        <v>0</v>
+      </c>
+      <c r="J75" s="82">
+        <v>5.2521008403361297E-3</v>
+      </c>
+      <c r="K75" s="82">
+        <v>1.31302521008403E-2</v>
+      </c>
+      <c r="L75" s="82">
+        <v>0</v>
+      </c>
+      <c r="M75" s="82">
+        <v>7.2216386554621792E-3</v>
+      </c>
+      <c r="N75" s="82">
+        <v>4.1652077497665696E-2</v>
+      </c>
+      <c r="O75" s="82">
+        <v>0.50000113800000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="82">
+        <v>0.154550990948049</v>
+      </c>
+      <c r="D76" s="82">
+        <v>0.22661808041819398</v>
+      </c>
+      <c r="E76" s="82">
+        <v>0.28178219905895302</v>
+      </c>
+      <c r="F76" s="82">
+        <v>0.40170271143393099</v>
+      </c>
+      <c r="G76" s="82">
+        <v>0.43680259838164998</v>
+      </c>
+      <c r="H76" s="82">
+        <v>0.57877616865277104</v>
+      </c>
+      <c r="I76" s="82">
+        <v>0.400910364145658</v>
+      </c>
+      <c r="J76" s="82">
+        <v>0.36257002801120397</v>
+      </c>
+      <c r="K76" s="82">
+        <v>0.32064075630252098</v>
+      </c>
+      <c r="L76" s="82">
+        <v>0.20114290131359402</v>
+      </c>
+      <c r="M76" s="82">
+        <v>0.43554789582888298</v>
+      </c>
+      <c r="N76" s="82">
+        <v>0.74635546356265803</v>
+      </c>
+      <c r="O76" s="82">
+        <v>0.64742821399999995</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="82">
+        <v>0.16567778104345801</v>
+      </c>
+      <c r="D77" s="82">
+        <v>0.23787204061079198</v>
+      </c>
+      <c r="E77" s="82">
+        <v>0.29463974967257001</v>
+      </c>
+      <c r="F77" s="82">
+        <v>0.43453776199342004</v>
+      </c>
+      <c r="G77" s="82">
+        <v>0.45671968237267502</v>
+      </c>
+      <c r="H77" s="82">
+        <v>0.59884928950882499</v>
+      </c>
+      <c r="I77" s="82">
+        <v>0.435924369747899</v>
+      </c>
+      <c r="J77" s="82">
+        <v>0.37517507002801098</v>
+      </c>
+      <c r="K77" s="82">
+        <v>0.32913165266106398</v>
+      </c>
+      <c r="L77" s="82">
+        <v>0.21792408081142298</v>
+      </c>
+      <c r="M77" s="82">
+        <v>0.44608342802933099</v>
+      </c>
+      <c r="N77" s="82">
+        <v>0.75977189875561701</v>
+      </c>
+      <c r="O77" s="82">
+        <v>0.64733737700000005</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="82">
+        <v>0.171140016564123</v>
+      </c>
+      <c r="D78" s="82">
+        <v>0.238601504141704</v>
+      </c>
+      <c r="E78" s="82">
+        <v>0.29386865558057901</v>
+      </c>
+      <c r="F78" s="82">
+        <v>0.43707418930994202</v>
+      </c>
+      <c r="G78" s="82">
+        <v>0.45297354038899196</v>
+      </c>
+      <c r="H78" s="82">
+        <v>0.59617171626944798</v>
+      </c>
+      <c r="I78" s="82">
+        <v>0.44073879551820699</v>
+      </c>
+      <c r="J78" s="82">
+        <v>0.36957282913165201</v>
+      </c>
+      <c r="K78" s="82">
+        <v>0.32379201680672198</v>
+      </c>
+      <c r="L78" s="82">
+        <v>0.22593135569107201</v>
+      </c>
+      <c r="M78" s="82">
+        <v>0.44675421159139606</v>
+      </c>
+      <c r="N78" s="82">
+        <v>0.75630049028158197</v>
+      </c>
+      <c r="O78" s="82">
+        <v>0.65005490499999996</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="82">
+        <v>0</v>
+      </c>
+      <c r="D79" s="82">
+        <v>1.7665052131963801E-3</v>
+      </c>
+      <c r="E79" s="82">
+        <v>7.0087641538096705E-3</v>
+      </c>
+      <c r="F79" s="82">
+        <v>0</v>
+      </c>
+      <c r="G79" s="82">
+        <v>4.5904507761951995E-3</v>
+      </c>
+      <c r="H79" s="82">
+        <v>1.9822257692364099E-2</v>
+      </c>
+      <c r="I79" s="82">
+        <v>0</v>
+      </c>
+      <c r="J79" s="82">
+        <v>5.2521008403361297E-3</v>
+      </c>
+      <c r="K79" s="82">
+        <v>1.31302521008403E-2</v>
+      </c>
+      <c r="L79" s="82">
+        <v>0</v>
+      </c>
+      <c r="M79" s="82">
+        <v>7.2216386554621792E-3</v>
+      </c>
+      <c r="N79" s="82">
+        <v>4.1652077497665696E-2</v>
+      </c>
+      <c r="O79" s="82">
+        <v>0.49999999899999997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="82">
+        <v>0.13736001879384199</v>
+      </c>
+      <c r="D80" s="82">
+        <v>0.20572726871035202</v>
+      </c>
+      <c r="E80" s="82">
+        <v>0.26563677823869303</v>
+      </c>
+      <c r="F80" s="82">
+        <v>0.38341558170744905</v>
+      </c>
+      <c r="G80" s="82">
+        <v>0.42278239883678098</v>
+      </c>
+      <c r="H80" s="82">
+        <v>0.58023581476586805</v>
+      </c>
+      <c r="I80" s="82">
+        <v>0.390843837535014</v>
+      </c>
+      <c r="J80" s="82">
+        <v>0.36274509803921495</v>
+      </c>
+      <c r="K80" s="82">
+        <v>0.339023109243697</v>
+      </c>
+      <c r="L80" s="82">
+        <v>0.184367866221857</v>
+      </c>
+      <c r="M80" s="82">
+        <v>0.415600003113133</v>
+      </c>
+      <c r="N80" s="82">
+        <v>0.77145842797103292</v>
+      </c>
+      <c r="O80" s="82">
+        <v>0.66357418000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="82">
+        <v>0.13383133520016399</v>
+      </c>
+      <c r="D81" s="82">
+        <v>0.20886705070933398</v>
+      </c>
+      <c r="E81" s="82">
+        <v>0.27281216649703599</v>
+      </c>
+      <c r="F81" s="82">
+        <v>0.37693727870515098</v>
+      </c>
+      <c r="G81" s="82">
+        <v>0.427386018619688</v>
+      </c>
+      <c r="H81" s="82">
+        <v>0.59226245994042892</v>
+      </c>
+      <c r="I81" s="82">
+        <v>0.37683823529411697</v>
+      </c>
+      <c r="J81" s="82">
+        <v>0.37097338935574203</v>
+      </c>
+      <c r="K81" s="82">
+        <v>0.34996498599439696</v>
+      </c>
+      <c r="L81" s="82">
+        <v>0.173386588269729</v>
+      </c>
+      <c r="M81" s="82">
+        <v>0.41982427319218196</v>
+      </c>
+      <c r="N81" s="82">
+        <v>0.79546483147454694</v>
+      </c>
+      <c r="O81" s="82">
+        <v>0.66524963500000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="82">
+        <v>0.126846131080637</v>
+      </c>
+      <c r="D82" s="82">
+        <v>0.20867086434094401</v>
+      </c>
+      <c r="E82" s="82">
+        <v>0.27299308327011002</v>
+      </c>
+      <c r="F82" s="82">
+        <v>0.35787766244598701</v>
+      </c>
+      <c r="G82" s="82">
+        <v>0.42362163334589203</v>
+      </c>
+      <c r="H82" s="82">
+        <v>0.58702613671247694</v>
+      </c>
+      <c r="I82" s="82">
+        <v>0.35758053221288499</v>
+      </c>
+      <c r="J82" s="82">
+        <v>0.37482492997198802</v>
+      </c>
+      <c r="K82" s="82">
+        <v>0.35250350140056003</v>
+      </c>
+      <c r="L82" s="82">
+        <v>0.16156579910518901</v>
+      </c>
+      <c r="M82" s="82">
+        <v>0.42107801866861699</v>
+      </c>
+      <c r="N82" s="82">
+        <v>0.79464366724739599</v>
+      </c>
+      <c r="O82" s="82">
+        <v>0.666566361</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="82">
+        <v>0</v>
+      </c>
+      <c r="D83" s="82">
+        <v>1.7665052131963801E-3</v>
+      </c>
+      <c r="E83" s="82">
+        <v>7.0087641538096705E-3</v>
+      </c>
+      <c r="F83" s="82">
+        <v>0</v>
+      </c>
+      <c r="G83" s="82">
+        <v>4.5904507761951995E-3</v>
+      </c>
+      <c r="H83" s="82">
+        <v>1.9822257692364099E-2</v>
+      </c>
+      <c r="I83" s="82">
+        <v>0</v>
+      </c>
+      <c r="J83" s="82">
+        <v>5.2521008403361297E-3</v>
+      </c>
+      <c r="K83" s="82">
+        <v>1.31302521008403E-2</v>
+      </c>
+      <c r="L83" s="82">
+        <v>0</v>
+      </c>
+      <c r="M83" s="82">
+        <v>7.2216386554621792E-3</v>
+      </c>
+      <c r="N83" s="82">
+        <v>4.1652077497665696E-2</v>
+      </c>
+      <c r="O83" s="82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="82">
+        <v>0.38017634452770999</v>
+      </c>
+      <c r="D84" s="82">
+        <v>0.54584006080417102</v>
+      </c>
+      <c r="E84" s="82">
+        <v>0.66832996292531399</v>
+      </c>
+      <c r="F84" s="82">
+        <v>1.0572768242396999</v>
+      </c>
+      <c r="G84" s="82">
+        <v>1.07611828047612</v>
+      </c>
+      <c r="H84" s="82">
+        <v>1.3246083518515801</v>
+      </c>
+      <c r="I84" s="82">
+        <v>1.0464810924369701</v>
+      </c>
+      <c r="J84" s="82">
+        <v>0.88830532212885105</v>
+      </c>
+      <c r="K84" s="82">
+        <v>0.72715336134453701</v>
+      </c>
+      <c r="L84" s="82">
+        <v>0.48376926528187003</v>
+      </c>
+      <c r="M84" s="82">
+        <v>0.99900623006584111</v>
+      </c>
+      <c r="N84" s="82">
+        <v>1.6010722798734798</v>
+      </c>
+      <c r="O84" s="82">
+        <v>0.74270787999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="82">
+        <v>0.39310178774792698</v>
+      </c>
+      <c r="D85" s="82">
+        <v>0.55895118338548799</v>
+      </c>
+      <c r="E85" s="82">
+        <v>0.67693570003375403</v>
+      </c>
+      <c r="F85" s="82">
+        <v>1.0678263475426</v>
+      </c>
+      <c r="G85" s="82">
+        <v>1.0839480327183799</v>
+      </c>
+      <c r="H85" s="82">
+        <v>1.33314501376615</v>
+      </c>
+      <c r="I85" s="82">
+        <v>1.0491071428571399</v>
+      </c>
+      <c r="J85" s="82">
+        <v>0.88322829131652603</v>
+      </c>
+      <c r="K85" s="82">
+        <v>0.72242647058823506</v>
+      </c>
+      <c r="L85" s="82">
+        <v>0.49392901221288799</v>
+      </c>
+      <c r="M85" s="82">
+        <v>1.00971056886235</v>
+      </c>
+      <c r="N85" s="82">
+        <v>1.6033368912833099</v>
+      </c>
+      <c r="O85" s="82">
+        <v>0.74415228200000005</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="82">
+        <v>0.39191309658090101</v>
+      </c>
+      <c r="D86" s="82">
+        <v>0.56890017419166494</v>
+      </c>
+      <c r="E86" s="82">
+        <v>0.69363089948703094</v>
+      </c>
+      <c r="F86" s="82">
+        <v>1.10426464212887</v>
+      </c>
+      <c r="G86" s="82">
+        <v>1.1235289856314101</v>
+      </c>
+      <c r="H86" s="82">
+        <v>1.3853831357070401</v>
+      </c>
+      <c r="I86" s="82">
+        <v>1.09287464985994</v>
+      </c>
+      <c r="J86" s="82">
+        <v>0.92664565826330503</v>
+      </c>
+      <c r="K86" s="82">
+        <v>0.75954131652660994</v>
+      </c>
+      <c r="L86" s="82">
+        <v>0.50229434479696999</v>
+      </c>
+      <c r="M86" s="82">
+        <v>1.04249465544764</v>
+      </c>
+      <c r="N86" s="82">
+        <v>1.68432624482388</v>
+      </c>
+      <c r="O86" s="82">
+        <v>0.750736548</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="C70:O70"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="O1:Z1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="C27:O27"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="C48:O48"/>
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="C24:O24"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C18">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -47790,7 +48784,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47802,6 +48796,136 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D18">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E18">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I18">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J18">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K18">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L18">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M18">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N18">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O18">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P18">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q18">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -47811,7 +48935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E18">
+  <conditionalFormatting sqref="R3:R18">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -47821,7 +48945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F18">
+  <conditionalFormatting sqref="S3:S18">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
@@ -47831,7 +48955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G18">
+  <conditionalFormatting sqref="T3:T18">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -47841,7 +48965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H18">
+  <conditionalFormatting sqref="U3:U18">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -47851,7 +48975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I18">
+  <conditionalFormatting sqref="V3:V18">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -47861,7 +48985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J18">
+  <conditionalFormatting sqref="W3:W18">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -47871,7 +48995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K18">
+  <conditionalFormatting sqref="X3:X18">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -47881,7 +49005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L18">
+  <conditionalFormatting sqref="Y3:Y18">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -47891,7 +49015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M18">
+  <conditionalFormatting sqref="Z3:Z18">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -47901,127 +49025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N18">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O18">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P18">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q18">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R18">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S18">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T18">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U18">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V18">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W18">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X18">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y18">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z18">
+  <conditionalFormatting sqref="O28:O43">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -48031,18 +49035,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28:O43">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L28:L43">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48052,7 +49046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M43">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48062,7 +49056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N43">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48072,7 +49066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C43">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48082,7 +49076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D43">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48092,7 +49086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E43">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48102,7 +49096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F43">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48112,7 +49106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G43">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48122,7 +49116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H43">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48132,7 +49126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I43">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48142,7 +49136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J43">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48152,7 +49146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K43">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48162,7 +49156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O64">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48172,6 +49166,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:L64">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:M64">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:N64">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C64">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D64">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E64">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F64">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G64">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H64">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:I64">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:J64">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:K64">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25:AF40">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -48181,57 +49295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M49:M64">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49:N64">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C64">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D64">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E64">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F64">
+  <conditionalFormatting sqref="AD25:AD40">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -48241,78 +49305,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:G64">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H64">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I64">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J64">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:K64">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25:AF40">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD25:AD40">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AE25:AE40">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48322,7 +49316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI25:AI40">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48332,7 +49326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG40">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48342,7 +49336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH25:AH40">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48352,7 +49346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AD40">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48362,7 +49356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE40">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48372,7 +49366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AF40">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48382,7 +49376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG24:AG40">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48392,7 +49386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH24:AH40">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48400,7 +49394,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48410,7 +49404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI24:AI40">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48429,7 +49423,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48454,38 +49448,38 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="29"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132" t="s">
+      <c r="I1" s="138"/>
+      <c r="J1" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132" t="s">
+      <c r="M1" s="138"/>
+      <c r="N1" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="132"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
@@ -48647,6 +49641,59 @@
       </c>
       <c r="R4" s="29"/>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>63.749999999999993</v>
+      </c>
+      <c r="E5">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="F5">
+        <v>63.67</v>
+      </c>
+      <c r="G5">
+        <v>64.73</v>
+      </c>
+      <c r="H5">
+        <v>63.81</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>49.99</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="M5">
+        <v>74.27</v>
+      </c>
+      <c r="N5">
+        <v>66.52</v>
+      </c>
+      <c r="O5">
+        <v>74.41</v>
+      </c>
+      <c r="P5">
+        <v>66.649999999999991</v>
+      </c>
+      <c r="Q5">
+        <v>75.070000000000007</v>
+      </c>
+    </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="32" t="s">
         <v>66</v>
@@ -48656,7 +49703,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="130" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -48671,7 +49718,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="129"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
@@ -48695,7 +49742,7 @@
       <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="129"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
@@ -48719,7 +49766,7 @@
       <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="129"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="12" t="s">
         <v>47</v>
       </c>
@@ -48743,7 +49790,7 @@
       <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="129"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
@@ -48767,7 +49814,7 @@
       <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
@@ -48791,7 +49838,7 @@
       <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
@@ -48815,7 +49862,7 @@
       <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="129"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="12" t="s">
         <v>51</v>
       </c>
@@ -48839,7 +49886,7 @@
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="132" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -48865,7 +49912,7 @@
       <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="129"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="11" t="s">
         <v>68</v>
       </c>
@@ -48889,7 +49936,7 @@
       <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="129"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="11" t="s">
         <v>69</v>
       </c>
@@ -48913,7 +49960,7 @@
       <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="129"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -48937,7 +49984,7 @@
       <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="129"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="10" t="s">
         <v>71</v>
       </c>
@@ -48961,7 +50008,7 @@
       <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="129"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="11" t="s">
         <v>72</v>
       </c>
@@ -48985,7 +50032,7 @@
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="129"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="11" t="s">
         <v>73</v>
       </c>
@@ -49009,7 +50056,7 @@
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
@@ -49334,16 +50381,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C26">
     <cfRule type="colorScale" priority="2">
@@ -49382,7 +50429,7 @@
   <dimension ref="A1:Y126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
